--- a/hw5_ACO/one_min_Results.xlsx
+++ b/hw5_ACO/one_min_Results.xlsx
@@ -365,7 +365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G3" sqref="G3:K10"/>
@@ -583,9 +583,159 @@
       </c>
       <c r="H12" s="1" t="n"/>
     </row>
+    <row r="17">
+      <c r="G17" t="n">
+        <v>7162.349176858414</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="G18" t="n">
+        <v>15173.4367192692</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="G19" t="n">
+        <v>10379.18973540352</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="G20" t="n">
+        <v>13591.4079567271</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="G21" t="n">
+        <v>776.3952160805915</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="G22" t="n">
+        <v>1229.986635547225</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="G23" t="n">
+        <v>1207.969500114957</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="G24" t="n">
+        <v>1872.909789406722</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="G25" t="n">
+        <v>1027.566380137385</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="G26" t="n">
+        <v>2054.372466925393</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="G33" t="n">
+        <v>1136.719956371985</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="G34" t="n">
+        <v>1354.430047328888</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="G35" t="n">
+        <v>1067.863180400643</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="G36" t="n">
+        <v>1374.369997391538</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="G37" t="n">
+        <v>1692.869607725188</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="G38" t="n">
+        <v>2044.859115311797</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="G39" t="n">
+        <v>901.4697982192966</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="G40" t="n">
+        <v>1233.375146970361</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="G41" t="n">
+        <v>1654.403771752308</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="G42" t="n">
+        <v>2353.257506767105</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="G46" t="n">
+        <v>10520.98288728055</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="G47" t="n">
+        <v>17626.74253744484</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="G48" t="n">
+        <v>11847.54462274521</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="G49" t="n">
+        <v>14492.68880660189</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="G50" t="n">
+        <v>1023.978060845158</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="G51" t="n">
+        <v>1502.488013597414</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="G52" t="n">
+        <v>1540.777062236567</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="G53" t="n">
+        <v>2308.494681998847</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="G54" t="n">
+        <v>1401.552117834831</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="G55" t="n">
+        <v>2572.521125905524</v>
+      </c>
+    </row>
     <row r="60">
       <c r="G60" t="n">
-        <v>1961.988735559444</v>
+        <v>6401.094920218944</v>
       </c>
       <c r="H60" t="n">
         <v>1961.988735559444</v>
@@ -604,7 +754,7 @@
     </row>
     <row r="61">
       <c r="G61" t="n">
-        <v>2713.839517501459</v>
+        <v>10187.39712064426</v>
       </c>
       <c r="H61" t="n">
         <v>2713.839517501459</v>
@@ -623,7 +773,7 @@
     </row>
     <row r="62">
       <c r="G62" t="n">
-        <v>2684.840786182535</v>
+        <v>16664.14135568672</v>
       </c>
       <c r="H62" t="n">
         <v>2684.840786182536</v>
@@ -642,7 +792,7 @@
     </row>
     <row r="63">
       <c r="G63" t="n">
-        <v>3125.264945443357</v>
+        <v>8679.347849272639</v>
       </c>
       <c r="H63" t="n">
         <v>3125.264945443357</v>
@@ -661,7 +811,7 @@
     </row>
     <row r="64">
       <c r="G64" t="n">
-        <v>3038.93635770704</v>
+        <v>11705.95337183016</v>
       </c>
       <c r="H64" t="n">
         <v>3038.93635770704</v>
@@ -680,7 +830,7 @@
     </row>
     <row r="65">
       <c r="G65" t="n">
-        <v>2239.090441560022</v>
+        <v>13572.42554405236</v>
       </c>
       <c r="H65" t="n">
         <v>2249.369997624996</v>
@@ -699,7 +849,7 @@
     </row>
     <row r="66">
       <c r="G66" t="n">
-        <v>3343.339915866853</v>
+        <v>860.6491369519445</v>
       </c>
       <c r="H66" t="n">
         <v>3343.339915866854</v>
@@ -718,7 +868,7 @@
     </row>
     <row r="67">
       <c r="G67" t="n">
-        <v>2016.571962173894</v>
+        <v>1091.882794641574</v>
       </c>
       <c r="H67" t="n">
         <v>2016.571962173894</v>
@@ -733,6 +883,16 @@
         <is>
           <t>0.0108</t>
         </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="G68" t="n">
+        <v>1696.128271530157</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="G69" t="n">
+        <v>2158.55567545536</v>
       </c>
     </row>
   </sheetData>
@@ -1218,7 +1378,9 @@
       <c r="F17" t="n">
         <v>6051.04</v>
       </c>
-      <c r="G17" s="1" t="n"/>
+      <c r="G17" s="1" t="n">
+        <v>7162.349176858414</v>
+      </c>
       <c r="H17" s="1" t="n"/>
       <c r="I17" s="1" t="n"/>
       <c r="J17" s="1" t="n"/>
@@ -1244,7 +1406,9 @@
       <c r="F18" t="n">
         <v>13692.6</v>
       </c>
-      <c r="G18" s="1" t="n"/>
+      <c r="G18" s="1" t="n">
+        <v>15173.4367192692</v>
+      </c>
       <c r="H18" s="1" t="n"/>
       <c r="I18" s="1" t="n"/>
       <c r="J18" s="1" t="n"/>
@@ -1270,7 +1434,9 @@
       <c r="F19" t="n">
         <v>9340.700000000001</v>
       </c>
-      <c r="G19" s="1" t="n"/>
+      <c r="G19" s="1" t="n">
+        <v>10379.18973540352</v>
+      </c>
       <c r="H19" s="1" t="n"/>
       <c r="I19" s="1" t="n"/>
       <c r="J19" s="1" t="n"/>
@@ -1296,7 +1462,9 @@
       <c r="F20" t="n">
         <v>12348.1</v>
       </c>
-      <c r="G20" s="1" t="n"/>
+      <c r="G20" s="1" t="n">
+        <v>13591.4079567271</v>
+      </c>
       <c r="H20" s="1" t="n"/>
       <c r="I20" s="1" t="n"/>
       <c r="J20" s="1" t="n"/>
@@ -1322,7 +1490,9 @@
       <c r="F21" t="n">
         <v>717.63</v>
       </c>
-      <c r="G21" s="1" t="n"/>
+      <c r="G21" s="1" t="n">
+        <v>776.3952160805915</v>
+      </c>
       <c r="H21" s="1" t="n"/>
       <c r="I21" s="1" t="n"/>
       <c r="J21" s="1" t="n"/>
@@ -1348,7 +1518,9 @@
       <c r="F22" t="n">
         <v>1131.84</v>
       </c>
-      <c r="G22" s="1" t="n"/>
+      <c r="G22" s="1" t="n">
+        <v>1229.986635547225</v>
+      </c>
       <c r="H22" s="1" t="n"/>
       <c r="I22" s="1" t="n"/>
       <c r="J22" s="1" t="n"/>
@@ -1374,7 +1546,9 @@
       <c r="F23" t="n">
         <v>1034.3</v>
       </c>
-      <c r="G23" s="1" t="n"/>
+      <c r="G23" s="1" t="n">
+        <v>1207.969500114957</v>
+      </c>
       <c r="H23" s="1" t="n"/>
       <c r="I23" s="1" t="n"/>
       <c r="J23" s="1" t="n"/>
@@ -1400,7 +1574,9 @@
       <c r="F24" t="n">
         <v>1667.08</v>
       </c>
-      <c r="G24" s="1" t="n"/>
+      <c r="G24" s="1" t="n">
+        <v>1872.909789406722</v>
+      </c>
       <c r="H24" s="1" t="n"/>
       <c r="I24" s="1" t="n"/>
       <c r="J24" s="1" t="n"/>
@@ -1426,7 +1602,9 @@
       <c r="F25" t="n">
         <v>795.33</v>
       </c>
-      <c r="G25" s="1" t="n"/>
+      <c r="G25" s="1" t="n">
+        <v>1027.566380137385</v>
+      </c>
       <c r="H25" s="1" t="n"/>
       <c r="I25" s="1" t="n"/>
       <c r="J25" s="1" t="n"/>
@@ -1452,7 +1630,9 @@
       <c r="F26" t="n">
         <v>1538.2</v>
       </c>
-      <c r="G26" s="1" t="n"/>
+      <c r="G26" s="1" t="n">
+        <v>2054.372466925393</v>
+      </c>
       <c r="H26" s="1" t="n"/>
       <c r="I26" s="1" t="n"/>
       <c r="J26" s="1" t="n"/>
@@ -1582,7 +1762,9 @@
       <c r="F33" t="n">
         <v>1101.51</v>
       </c>
-      <c r="G33" s="1" t="n"/>
+      <c r="G33" s="1" t="n">
+        <v>1136.719956371985</v>
+      </c>
       <c r="H33" s="1" t="n"/>
       <c r="I33" s="1" t="n"/>
       <c r="J33" s="1" t="n"/>
@@ -1608,7 +1790,9 @@
       <c r="F34" t="n">
         <v>1311.9175</v>
       </c>
-      <c r="G34" s="1" t="n"/>
+      <c r="G34" s="1" t="n">
+        <v>1354.430047328888</v>
+      </c>
       <c r="H34" s="1" t="n"/>
       <c r="I34" s="1" t="n"/>
       <c r="J34" s="1" t="n"/>
@@ -1634,7 +1818,9 @@
       <c r="F35" t="n">
         <v>1053.47</v>
       </c>
-      <c r="G35" s="1" t="n"/>
+      <c r="G35" s="1" t="n">
+        <v>1067.863180400643</v>
+      </c>
       <c r="H35" s="1" t="n"/>
       <c r="I35" s="1" t="n"/>
       <c r="J35" s="1" t="n"/>
@@ -1660,7 +1846,9 @@
       <c r="F36" t="n">
         <v>1342.7</v>
       </c>
-      <c r="G36" s="1" t="n"/>
+      <c r="G36" s="1" t="n">
+        <v>1374.369997391538</v>
+      </c>
       <c r="H36" s="1" t="n"/>
       <c r="I36" s="1" t="n"/>
       <c r="J36" s="1" t="n"/>
@@ -1686,7 +1874,9 @@
       <c r="F37" t="n">
         <v>1657.22</v>
       </c>
-      <c r="G37" s="1" t="n"/>
+      <c r="G37" s="1" t="n">
+        <v>1692.869607725188</v>
+      </c>
       <c r="H37" s="1" t="n"/>
       <c r="I37" s="1" t="n"/>
       <c r="J37" s="1" t="n"/>
@@ -1712,7 +1902,9 @@
       <c r="F38" t="n">
         <v>2003.1</v>
       </c>
-      <c r="G38" s="1" t="n"/>
+      <c r="G38" s="1" t="n">
+        <v>2044.859115311797</v>
+      </c>
       <c r="H38" s="1" t="n"/>
       <c r="I38" s="1" t="n"/>
       <c r="J38" s="1" t="n"/>
@@ -1738,7 +1930,9 @@
       <c r="F39" t="n">
         <v>881.66</v>
       </c>
-      <c r="G39" s="1" t="n"/>
+      <c r="G39" s="1" t="n">
+        <v>901.4697982192966</v>
+      </c>
       <c r="H39" s="1" t="n"/>
       <c r="I39" s="1" t="n"/>
       <c r="J39" s="1" t="n"/>
@@ -1764,7 +1958,9 @@
       <c r="F40" t="n">
         <v>1199.1249</v>
       </c>
-      <c r="G40" s="1" t="n"/>
+      <c r="G40" s="1" t="n">
+        <v>1233.375146970361</v>
+      </c>
       <c r="H40" s="1" t="n"/>
       <c r="I40" s="1" t="n"/>
       <c r="J40" s="1" t="n"/>
@@ -1790,7 +1986,9 @@
       <c r="F41" t="n">
         <v>1612.33</v>
       </c>
-      <c r="G41" s="1" t="n"/>
+      <c r="G41" s="1" t="n">
+        <v>1654.403771752308</v>
+      </c>
       <c r="H41" s="1" t="n"/>
       <c r="I41" s="1" t="n"/>
       <c r="J41" s="1" t="n"/>
@@ -1816,7 +2014,9 @@
       <c r="F42" t="n">
         <v>2278.64</v>
       </c>
-      <c r="G42" s="1" t="n"/>
+      <c r="G42" s="1" t="n">
+        <v>2353.257506767105</v>
+      </c>
       <c r="H42" s="1" t="n"/>
       <c r="I42" s="1" t="n"/>
       <c r="J42" s="1" t="n"/>
@@ -1922,7 +2122,9 @@
       <c r="F46" t="n">
         <v>10204.3023</v>
       </c>
-      <c r="G46" s="1" t="n"/>
+      <c r="G46" s="1" t="n">
+        <v>10520.98288728055</v>
+      </c>
       <c r="H46" s="1" t="n"/>
       <c r="I46" s="1" t="n"/>
       <c r="J46" s="1" t="n"/>
@@ -1948,7 +2150,9 @@
       <c r="F47" t="n">
         <v>17077.5899</v>
       </c>
-      <c r="G47" s="1" t="n"/>
+      <c r="G47" s="1" t="n">
+        <v>17626.74253744484</v>
+      </c>
       <c r="H47" s="1" t="n"/>
       <c r="I47" s="1" t="n"/>
       <c r="J47" s="1" t="n"/>
@@ -1974,7 +2178,9 @@
       <c r="F48" t="n">
         <v>11452.0114</v>
       </c>
-      <c r="G48" s="1" t="n"/>
+      <c r="G48" s="1" t="n">
+        <v>11847.54462274521</v>
+      </c>
       <c r="H48" s="1" t="n"/>
       <c r="I48" s="1" t="n"/>
       <c r="J48" s="1" t="n"/>
@@ -2000,7 +2206,9 @@
       <c r="F49" t="n">
         <v>13882.227</v>
       </c>
-      <c r="G49" s="1" t="n"/>
+      <c r="G49" s="1" t="n">
+        <v>14492.68880660189</v>
+      </c>
       <c r="H49" s="1" t="n"/>
       <c r="I49" s="1" t="n"/>
       <c r="J49" s="1" t="n"/>
@@ -2026,7 +2234,9 @@
       <c r="F50" t="n">
         <v>1000.5065</v>
       </c>
-      <c r="G50" s="1" t="n"/>
+      <c r="G50" s="1" t="n">
+        <v>1023.978060845158</v>
+      </c>
       <c r="H50" s="1" t="n"/>
       <c r="I50" s="1" t="n"/>
       <c r="J50" s="1" t="n"/>
@@ -2052,7 +2262,9 @@
       <c r="F51" t="n">
         <v>1475.679</v>
       </c>
-      <c r="G51" s="1" t="n"/>
+      <c r="G51" s="1" t="n">
+        <v>1502.488013597414</v>
+      </c>
       <c r="H51" s="1" t="n"/>
       <c r="I51" s="1" t="n"/>
       <c r="J51" s="1" t="n"/>
@@ -2078,7 +2290,9 @@
       <c r="F52" t="n">
         <v>1520.5464</v>
       </c>
-      <c r="G52" s="1" t="n"/>
+      <c r="G52" s="1" t="n">
+        <v>1540.777062236567</v>
+      </c>
       <c r="H52" s="1" t="n"/>
       <c r="I52" s="1" t="n"/>
       <c r="J52" s="1" t="n"/>
@@ -2104,7 +2318,9 @@
       <c r="F53" t="n">
         <v>2265.537</v>
       </c>
-      <c r="G53" s="1" t="n"/>
+      <c r="G53" s="1" t="n">
+        <v>2308.494681998847</v>
+      </c>
       <c r="H53" s="1" t="n"/>
       <c r="I53" s="1" t="n"/>
       <c r="J53" s="1" t="n"/>
@@ -2130,7 +2346,9 @@
       <c r="F54" t="n">
         <v>1392.1528</v>
       </c>
-      <c r="G54" s="1" t="n"/>
+      <c r="G54" s="1" t="n">
+        <v>1401.552117834831</v>
+      </c>
       <c r="H54" s="1" t="n"/>
       <c r="I54" s="1" t="n"/>
       <c r="J54" s="1" t="n"/>
@@ -2156,7 +2374,9 @@
       <c r="F55" t="n">
         <v>2502.34</v>
       </c>
-      <c r="G55" s="1" t="n"/>
+      <c r="G55" s="1" t="n">
+        <v>2572.521125905524</v>
+      </c>
       <c r="H55" s="1" t="n"/>
       <c r="I55" s="1" t="n"/>
       <c r="J55" s="1" t="n"/>
@@ -2269,7 +2489,9 @@
       <c r="F60" t="n">
         <v>6293.0355</v>
       </c>
-      <c r="G60" s="1" t="n"/>
+      <c r="G60" s="1" t="n">
+        <v>6401.094920218944</v>
+      </c>
       <c r="H60" s="1" t="n"/>
       <c r="I60" s="1" t="n"/>
       <c r="J60" s="1" t="n"/>
@@ -2295,7 +2517,9 @@
       <c r="F61" t="n">
         <v>9879.585499999999</v>
       </c>
-      <c r="G61" s="1" t="n"/>
+      <c r="G61" s="1" t="n">
+        <v>10187.39712064426</v>
+      </c>
       <c r="H61" s="1" t="n"/>
       <c r="I61" s="1" t="n"/>
       <c r="J61" s="1" t="n"/>
@@ -2321,7 +2545,9 @@
       <c r="F62" t="n">
         <v>16130.3901</v>
       </c>
-      <c r="G62" s="1" t="n"/>
+      <c r="G62" s="1" t="n">
+        <v>16664.14135568672</v>
+      </c>
       <c r="H62" s="1" t="n"/>
       <c r="I62" s="1" t="n"/>
       <c r="J62" s="1" t="n"/>
@@ -2347,7 +2573,9 @@
       <c r="F63" t="n">
         <v>8394.1106</v>
       </c>
-      <c r="G63" s="1" t="n"/>
+      <c r="G63" s="1" t="n">
+        <v>8679.347849272639</v>
+      </c>
       <c r="H63" s="1" t="n"/>
       <c r="I63" s="1" t="n"/>
       <c r="J63" s="1" t="n"/>
@@ -2373,7 +2601,9 @@
       <c r="F64" t="n">
         <v>11346.1129</v>
       </c>
-      <c r="G64" s="1" t="n"/>
+      <c r="G64" s="1" t="n">
+        <v>11705.95337183016</v>
+      </c>
       <c r="H64" s="1" t="n"/>
       <c r="I64" s="1" t="n"/>
       <c r="J64" s="1" t="n"/>
@@ -2399,7 +2629,9 @@
       <c r="F65" t="n">
         <v>13188.935</v>
       </c>
-      <c r="G65" s="1" t="n"/>
+      <c r="G65" s="1" t="n">
+        <v>13572.42554405236</v>
+      </c>
       <c r="H65" s="1" t="n"/>
       <c r="I65" s="1" t="n"/>
       <c r="J65" s="1" t="n"/>
@@ -2425,7 +2657,9 @@
       <c r="F66" t="n">
         <v>837.516</v>
       </c>
-      <c r="G66" s="1" t="n"/>
+      <c r="G66" s="1" t="n">
+        <v>860.6491369519445</v>
+      </c>
       <c r="H66" s="1" t="n"/>
       <c r="I66" s="1" t="n"/>
       <c r="J66" s="1" t="n"/>
@@ -2451,7 +2685,9 @@
       <c r="F67" t="n">
         <v>1054.1331</v>
       </c>
-      <c r="G67" s="1" t="n"/>
+      <c r="G67" s="1" t="n">
+        <v>1091.882794641574</v>
+      </c>
       <c r="H67" s="1" t="n"/>
       <c r="I67" s="1" t="n"/>
       <c r="J67" s="1" t="n"/>
@@ -2477,7 +2713,9 @@
       <c r="F68" t="n">
         <v>1667.4536</v>
       </c>
-      <c r="G68" s="1" t="n"/>
+      <c r="G68" s="1" t="n">
+        <v>1696.128271530157</v>
+      </c>
       <c r="H68" s="1" t="n"/>
       <c r="I68" s="1" t="n"/>
       <c r="J68" s="1" t="n"/>
@@ -2503,7 +2741,9 @@
       <c r="F69" t="n">
         <v>2128.5967</v>
       </c>
-      <c r="G69" s="1" t="n"/>
+      <c r="G69" s="1" t="n">
+        <v>2158.55567545536</v>
+      </c>
       <c r="H69" s="1" t="n"/>
       <c r="I69" s="1" t="n"/>
       <c r="J69" s="1" t="n"/>
